--- a/IT_Project_Task_Planning_Form.xlsx
+++ b/IT_Project_Task_Planning_Form.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerry\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8776B86B-0667-4305-B3A3-64A38CEC8EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>Project/Task Title</t>
-  </si>
-  <si>
-    <t>Project Owner / Requestor</t>
+    <t>Task Title</t>
+  </si>
+  <si>
+    <t>Project Owner / Requester</t>
   </si>
   <si>
     <t>Project Manager / Assigned Staff</t>
@@ -46,6 +40,9 @@
     <t>Resources Required</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Upgrade Office Network Infrastructure</t>
   </si>
   <si>
@@ -55,35 +52,26 @@
     <t>Alice Wong, IT Support Lead</t>
   </si>
   <si>
-    <t>2025-08-01</t>
-  </si>
-  <si>
-    <t>2025-08-15</t>
-  </si>
-  <si>
-    <t>- Improve network speed and reliability
-- Replace outdated hardware
-- Enhance cybersecurity features</t>
-  </si>
-  <si>
-    <t>- Conduct current infrastructure audit
-- Procure new networking equipment
-- Install and configure hardware
-- Perform testing and troubleshooting
-- Staff training and documentation</t>
-  </si>
-  <si>
-    <t>- 3x Managed Network Switches
-- 500 meters Cat6 Ethernet Cable
-- Network Engineer (1)
-- External Vendor (setup &amp; testing)</t>
+    <t>Improve network speed and reliability</t>
+  </si>
+  <si>
+    <t>Replace outdated hardware - Install/configure equipment</t>
+  </si>
+  <si>
+    <t>3x Managed Switches - 500m Cat6 - 1 Network Engineer</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,26 +88,35 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -128,29 +125,23 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -188,7 +179,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -222,7 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -257,10 +247,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -433,79 +422,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="163.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="111.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2">
+        <v>45847</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45884</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>